--- a/MachineLearning/datosProfesores.xlsx
+++ b/MachineLearning/datosProfesores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel Martinez\Desktop\Uriel\Whoami\WorkSpace\Python\Aplicacion-Horario\MachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\OneDrive\Escritorio\Uriel\Python\Horario\MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA58F7-F999-40C6-9C02-852D68EA4C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD0BC8-F831-4F81-91AF-154420A590F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44144462-5752-4A9F-AB54-EC448C5105D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44144462-5752-4A9F-AB54-EC448C5105D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
   <si>
     <t>OCOTITLA ROJAS NANCY</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>malo</t>
   </si>
 </sst>
 </file>
@@ -456,17 +459,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,6 +492,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -496,11 +504,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -814,20 +817,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AB88FD-C8FF-449C-9244-B7845CCD9343}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>86</v>
@@ -845,7 +848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -858,11 +861,11 @@
       <c r="E2" s="1">
         <v>3.6</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -875,11 +878,11 @@
       <c r="E3" s="1">
         <v>5.3</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -892,11 +895,11 @@
       <c r="E4" s="2">
         <v>1.8</v>
       </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -909,11 +912,11 @@
       <c r="E5" s="2">
         <v>3.3</v>
       </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -926,11 +929,11 @@
       <c r="E6" s="1">
         <v>4.2</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
@@ -943,11 +946,11 @@
       <c r="E7" s="1">
         <v>4.5</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -960,11 +963,11 @@
       <c r="E8" s="1">
         <v>4.3</v>
       </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -977,11 +980,11 @@
       <c r="E9" s="2">
         <v>3.2</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -994,11 +997,11 @@
       <c r="E10" s="2">
         <v>3.4</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -1011,11 +1014,11 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1028,11 +1031,11 @@
       <c r="E12" s="1">
         <v>3.9</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
@@ -1045,11 +1048,11 @@
       <c r="E13" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
@@ -1062,11 +1065,11 @@
       <c r="E14" s="2">
         <v>3.1</v>
       </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1079,11 +1082,11 @@
       <c r="E15" s="1">
         <v>4.3</v>
       </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1096,11 +1099,11 @@
       <c r="E16" s="1">
         <v>3.2</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1113,11 +1116,11 @@
       <c r="E17" s="2">
         <v>2.7</v>
       </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>16</v>
       </c>
@@ -1130,11 +1133,11 @@
       <c r="E18" s="2">
         <v>3.7</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1147,11 +1150,11 @@
       <c r="E19" s="1">
         <v>4.7</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1164,11 +1167,11 @@
       <c r="E20" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -1181,11 +1184,11 @@
       <c r="E21" s="2">
         <v>1.9</v>
       </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
@@ -1198,11 +1201,11 @@
       <c r="E22" s="2">
         <v>1.7</v>
       </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1215,11 +1218,11 @@
       <c r="E23" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1232,11 +1235,11 @@
       <c r="E24" s="2">
         <v>3.6</v>
       </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1249,11 +1252,11 @@
       <c r="E25" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1266,11 +1269,11 @@
       <c r="E26" s="2">
         <v>3.5</v>
       </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
         <v>26</v>
       </c>
@@ -1283,11 +1286,11 @@
       <c r="E27" s="2">
         <v>3.1</v>
       </c>
-      <c r="F27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1300,11 +1303,11 @@
       <c r="E28" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1317,11 +1320,11 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
         <v>29</v>
       </c>
@@ -1334,11 +1337,11 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1351,11 +1354,11 @@
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1368,11 +1371,11 @@
       <c r="E32" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
@@ -1385,11 +1388,11 @@
       <c r="E33" s="2">
         <v>3.8</v>
       </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
@@ -1402,11 +1405,11 @@
       <c r="E34" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="21" t="s">
         <v>34</v>
       </c>
@@ -1419,11 +1422,11 @@
       <c r="E35" s="1">
         <v>3.2</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
         <v>35</v>
       </c>
@@ -1436,11 +1439,11 @@
       <c r="E36" s="2">
         <v>2.7</v>
       </c>
-      <c r="F36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1453,11 +1456,11 @@
       <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
         <v>37</v>
       </c>
@@ -1470,11 +1473,11 @@
       <c r="E38" s="1">
         <v>3.3</v>
       </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
@@ -1487,11 +1490,11 @@
       <c r="E39" s="1">
         <v>4.8</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="16" t="s">
         <v>39</v>
       </c>
@@ -1504,11 +1507,11 @@
       <c r="E40" s="2">
         <v>2</v>
       </c>
-      <c r="F40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="s">
         <v>40</v>
       </c>
@@ -1521,11 +1524,11 @@
       <c r="E41" s="2">
         <v>1.9</v>
       </c>
-      <c r="F41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
         <v>41</v>
       </c>
@@ -1538,11 +1541,11 @@
       <c r="E42" s="2">
         <v>2.1</v>
       </c>
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
@@ -1555,11 +1558,11 @@
       <c r="E43" s="1">
         <v>3.6</v>
       </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
@@ -1572,11 +1575,11 @@
       <c r="E44" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="16" t="s">
         <v>44</v>
       </c>
@@ -1589,11 +1592,11 @@
       <c r="E45" s="2">
         <v>3.9</v>
       </c>
-      <c r="F45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>45</v>
       </c>
@@ -1606,11 +1609,11 @@
       <c r="E46" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
@@ -1623,11 +1626,11 @@
       <c r="E47" s="2">
         <v>3.1</v>
       </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
@@ -1640,11 +1643,11 @@
       <c r="E48" s="2">
         <v>2.4</v>
       </c>
-      <c r="F48" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>90</v>
       </c>
@@ -1657,11 +1660,11 @@
       <c r="E49" s="1">
         <v>3.7</v>
       </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -1674,11 +1677,11 @@
       <c r="E50" s="2">
         <v>1.9</v>
       </c>
-      <c r="F50" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="s">
         <v>49</v>
       </c>
@@ -1691,11 +1694,11 @@
       <c r="E51" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F51" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -1708,11 +1711,11 @@
       <c r="E52" s="2">
         <v>1.5</v>
       </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>51</v>
       </c>
@@ -1725,11 +1728,11 @@
       <c r="E53" s="1">
         <v>4.2</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>52</v>
       </c>
@@ -1742,11 +1745,11 @@
       <c r="E54" s="1">
         <v>5</v>
       </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="15" t="s">
         <v>53</v>
       </c>
@@ -1759,11 +1762,11 @@
       <c r="E55" s="2">
         <v>3</v>
       </c>
-      <c r="F55" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>54</v>
       </c>
@@ -1776,11 +1779,11 @@
       <c r="E56" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>55</v>
       </c>
@@ -1793,11 +1796,11 @@
       <c r="E57" s="3">
         <v>3.6</v>
       </c>
-      <c r="F57" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="13" t="s">
         <v>56</v>
       </c>
@@ -1810,11 +1813,11 @@
       <c r="E58" s="2">
         <v>0.5</v>
       </c>
-      <c r="F58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>57</v>
       </c>
@@ -1827,11 +1830,11 @@
       <c r="E59" s="3">
         <v>1.7</v>
       </c>
-      <c r="F59" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
         <v>58</v>
       </c>
@@ -1844,11 +1847,11 @@
       <c r="E60" s="2">
         <v>3.2</v>
       </c>
-      <c r="F60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
         <v>59</v>
       </c>
@@ -1861,11 +1864,11 @@
       <c r="E61" s="2">
         <v>5.4</v>
       </c>
-      <c r="F61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="18" t="s">
         <v>20</v>
       </c>
@@ -1878,11 +1881,11 @@
       <c r="E62" s="3">
         <v>3.3</v>
       </c>
-      <c r="F62" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>60</v>
       </c>
@@ -1895,11 +1898,11 @@
       <c r="E63" s="3">
         <v>2.5</v>
       </c>
-      <c r="F63" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
@@ -1912,11 +1915,11 @@
       <c r="E64" s="3">
         <v>5</v>
       </c>
-      <c r="F64" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="13" t="s">
         <v>62</v>
       </c>
@@ -1929,11 +1932,11 @@
       <c r="E65" s="2">
         <v>4.3</v>
       </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="12" t="s">
         <v>63</v>
       </c>
@@ -1946,11 +1949,11 @@
       <c r="E66" s="3">
         <v>2.6</v>
       </c>
-      <c r="F66" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="17" t="s">
         <v>64</v>
       </c>
@@ -1963,11 +1966,11 @@
       <c r="E67" s="2">
         <v>4.2</v>
       </c>
-      <c r="F67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="13" t="s">
         <v>89</v>
       </c>
@@ -1980,11 +1983,11 @@
       <c r="E68" s="2">
         <v>0.7</v>
       </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>65</v>
       </c>
@@ -1997,11 +2000,11 @@
       <c r="E69" s="3">
         <v>0.7</v>
       </c>
-      <c r="F69" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -2014,11 +2017,11 @@
       <c r="E70" s="3">
         <v>3.4</v>
       </c>
-      <c r="F70" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>67</v>
       </c>
@@ -2031,11 +2034,11 @@
       <c r="E71" s="3">
         <v>3.6</v>
       </c>
-      <c r="F71" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -2048,11 +2051,11 @@
       <c r="E72" s="3">
         <v>1.5</v>
       </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>69</v>
       </c>
@@ -2065,11 +2068,11 @@
       <c r="E73" s="3">
         <v>2.1</v>
       </c>
-      <c r="F73" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>70</v>
       </c>
@@ -2082,11 +2085,11 @@
       <c r="E74" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>71</v>
       </c>
@@ -2099,11 +2102,11 @@
       <c r="E75" s="3">
         <v>3.2</v>
       </c>
-      <c r="F75" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>72</v>
       </c>
@@ -2116,11 +2119,11 @@
       <c r="E76" s="3">
         <v>2</v>
       </c>
-      <c r="F76" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="13" t="s">
         <v>74</v>
       </c>
@@ -2133,11 +2136,11 @@
       <c r="E77" s="2">
         <v>3.8</v>
       </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>75</v>
       </c>
@@ -2150,11 +2153,11 @@
       <c r="E78" s="3">
         <v>2.9</v>
       </c>
-      <c r="F78" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>76</v>
       </c>
@@ -2167,11 +2170,11 @@
       <c r="E79" s="3">
         <v>2.1</v>
       </c>
-      <c r="F79" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>77</v>
       </c>
@@ -2184,11 +2187,11 @@
       <c r="E80" s="4">
         <v>5.3</v>
       </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="13" t="s">
         <v>78</v>
       </c>
@@ -2201,11 +2204,11 @@
       <c r="E81" s="2">
         <v>4.5</v>
       </c>
-      <c r="F81" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>79</v>
       </c>
@@ -2218,16 +2221,16 @@
       <c r="E82" s="4">
         <v>3.2</v>
       </c>
-      <c r="F82" s="4">
-        <v>1</v>
+      <c r="F82" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2241,15 +2244,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
   </sheetData>
@@ -2300,16 +2303,16 @@
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>37</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>45</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>46</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>47</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>90</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>49</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>50</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>53</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>55</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>57</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>59</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>20</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>60</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>61</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>62</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>63</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>64</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>89</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>65</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>66</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>67</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>68</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>69</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>70</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>71</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>72</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>73</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>74</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>75</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>76</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>77</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>78</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>79</v>
       </c>
